--- a/results/ugrad-009-01/ugrad-009-01-stats-20.xlsx
+++ b/results/ugrad-009-01/ugrad-009-01-stats-20.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desti\Documents\GitHub\P4P\results\ugrad-009-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59949FAF-B094-4F02-AA8C-58FEC4F1F326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ABDBE2-6D8A-4024-919A-43FEA681F6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ugrad-009-01-stats-20" sheetId="1" r:id="rId1"/>
+    <sheet name="raw" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Design</t>
   </si>
@@ -715,67 +716,67 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.42424242424242425</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43243243243243246</c:v>
+                  <c:v>0.45945945945945948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41509433962264153</c:v>
+                  <c:v>0.45283018867924529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42675159235668791</c:v>
+                  <c:v>0.45222929936305734</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31972789115646261</c:v>
+                  <c:v>0.36054421768707484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43382352941176472</c:v>
+                  <c:v>0.47058823529411764</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37777777777777777</c:v>
+                  <c:v>0.3925925925925926</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.36486486486486486</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33571428571428569</c:v>
+                  <c:v>0.37142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38392857142857145</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.43076923076923079</c:v>
+                  <c:v>0.44615384615384618</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45985401459854014</c:v>
+                  <c:v>0.48905109489051096</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.37209302325581395</c:v>
+                  <c:v>0.38953488372093026</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.43795620437956206</c:v>
+                  <c:v>0.48175182481751827</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37777777777777777</c:v>
+                  <c:v>0.4148148148148148</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41333333333333333</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.39306358381502893</c:v>
+                  <c:v>0.41040462427745666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.41566265060240964</c:v>
+                  <c:v>0.43975903614457829</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.32773109243697479</c:v>
+                  <c:v>0.35294117647058826</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.40441176470588236</c:v>
+                  <c:v>0.41911764705882354</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.39735051923412329</c:v>
+                  <c:v>0.42405411253669634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -919,67 +920,67 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.0606060606060608E-2</c:v>
+                  <c:v>4.0404040404040407E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1081081081081086E-2</c:v>
+                  <c:v>5.4054054054054057E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4339622641509441E-2</c:v>
+                  <c:v>5.6603773584905662E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6433121019108277E-2</c:v>
+                  <c:v>5.0955414012738856E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4829931972789115E-2</c:v>
+                  <c:v>3.4013605442176874E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21323529411764705</c:v>
+                  <c:v>0.17647058823529413</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6296296296296297E-2</c:v>
+                  <c:v>8.1481481481481488E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.4054054054054057E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10714285714285714</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.125</c:v>
+                  <c:v>8.0357142857142863E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13076923076923078</c:v>
+                  <c:v>0.11538461538461539</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13138686131386862</c:v>
+                  <c:v>0.10218978102189781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.5581395348837205E-2</c:v>
+                  <c:v>5.8139534883720929E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.12408759124087591</c:v>
+                  <c:v>8.0291970802919707E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1481481481481488E-2</c:v>
+                  <c:v>4.4444444444444446E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.6242774566473986E-2</c:v>
+                  <c:v>2.8901734104046242E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6265060240963861E-2</c:v>
+                  <c:v>4.2168674698795178E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0420168067226892E-2</c:v>
+                  <c:v>2.5210084033613446E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.11029411764705882</c:v>
+                  <c:v>9.5588235294117641E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.3310683313704373E-2</c:v>
+                  <c:v>6.6607090011131548E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,7 +2077,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,13 +2110,16 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <f>raw!A2</f>
+        <v>44</v>
       </c>
       <c r="C2">
+        <f>raw!B2</f>
         <v>51</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <f>raw!C2</f>
+        <v>4</v>
       </c>
       <c r="E2">
         <f>SUM(B2:D2)</f>
@@ -2123,7 +2127,7 @@
       </c>
       <c r="G2" s="1">
         <f>B2/E2</f>
-        <v>0.42424242424242425</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="H2" s="1">
         <f>C2/E2</f>
@@ -2131,7 +2135,7 @@
       </c>
       <c r="I2" s="1">
         <f>D2/E2</f>
-        <v>6.0606060606060608E-2</v>
+        <v>4.0404040404040407E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2139,13 +2143,16 @@
         <v>1001</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <f>raw!A3</f>
+        <v>51</v>
       </c>
       <c r="C3">
+        <f>raw!B3</f>
         <v>54</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <f>raw!C3</f>
+        <v>6</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E21" si="0">SUM(B3:D3)</f>
@@ -2153,7 +2160,7 @@
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G21" si="1">B3/E3</f>
-        <v>0.43243243243243246</v>
+        <v>0.45945945945945948</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H21" si="2">C3/E3</f>
@@ -2161,7 +2168,7 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I21" si="3">D3/E3</f>
-        <v>8.1081081081081086E-2</v>
+        <v>5.4054054054054057E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2169,13 +2176,16 @@
         <v>1002</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <f>raw!A4</f>
+        <v>48</v>
       </c>
       <c r="C4">
+        <f>raw!B4</f>
         <v>52</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <f>raw!C4</f>
+        <v>6</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -2183,7 +2193,7 @@
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>0.41509433962264153</v>
+        <v>0.45283018867924529</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
@@ -2191,7 +2201,7 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>9.4339622641509441E-2</v>
+        <v>5.6603773584905662E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2199,13 +2209,16 @@
         <v>1003</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <f>raw!A5</f>
+        <v>71</v>
       </c>
       <c r="C5">
+        <f>raw!B5</f>
         <v>78</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <f>raw!C5</f>
+        <v>8</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -2213,7 +2226,7 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>0.42675159235668791</v>
+        <v>0.45222929936305734</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
@@ -2221,7 +2234,7 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>7.6433121019108277E-2</v>
+        <v>5.0955414012738856E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2229,13 +2242,16 @@
         <v>1004</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <f>raw!A6</f>
+        <v>53</v>
       </c>
       <c r="C6">
+        <f>raw!B6</f>
         <v>89</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <f>raw!C6</f>
+        <v>5</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -2243,7 +2259,7 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>0.31972789115646261</v>
+        <v>0.36054421768707484</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
@@ -2251,7 +2267,7 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>7.4829931972789115E-2</v>
+        <v>3.4013605442176874E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2259,13 +2275,16 @@
         <v>1005</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <f>raw!A7</f>
+        <v>64</v>
       </c>
       <c r="C7">
+        <f>raw!B7</f>
         <v>48</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <f>raw!C7</f>
+        <v>24</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -2273,7 +2292,7 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>0.43382352941176472</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
@@ -2281,7 +2300,7 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>0.21323529411764705</v>
+        <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2289,13 +2308,16 @@
         <v>1006</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <f>raw!A8</f>
+        <v>53</v>
       </c>
       <c r="C8">
+        <f>raw!B8</f>
         <v>71</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <f>raw!C8</f>
+        <v>11</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -2303,7 +2325,7 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>0.37777777777777777</v>
+        <v>0.3925925925925926</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
@@ -2311,7 +2333,7 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="3"/>
-        <v>9.6296296296296297E-2</v>
+        <v>8.1481481481481488E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2319,12 +2341,15 @@
         <v>1007</v>
       </c>
       <c r="B9">
+        <f>raw!A9</f>
         <v>54</v>
       </c>
       <c r="C9">
+        <f>raw!B9</f>
         <v>86</v>
       </c>
       <c r="D9">
+        <f>raw!C9</f>
         <v>8</v>
       </c>
       <c r="E9">
@@ -2349,13 +2374,16 @@
         <v>1008</v>
       </c>
       <c r="B10">
-        <v>47</v>
+        <f>raw!A10</f>
+        <v>52</v>
       </c>
       <c r="C10">
+        <f>raw!B10</f>
         <v>78</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <f>raw!C10</f>
+        <v>10</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -2363,7 +2391,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>0.33571428571428569</v>
+        <v>0.37142857142857144</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="2"/>
@@ -2371,7 +2399,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>0.10714285714285714</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2379,13 +2407,16 @@
         <v>1009</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <f>raw!A11</f>
+        <v>48</v>
       </c>
       <c r="C11">
+        <f>raw!B11</f>
         <v>55</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <f>raw!C11</f>
+        <v>9</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -2393,7 +2424,7 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>0.38392857142857145</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
@@ -2401,7 +2432,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>0.125</v>
+        <v>8.0357142857142863E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2409,13 +2440,16 @@
         <v>1010</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <f>raw!A12</f>
+        <v>58</v>
       </c>
       <c r="C12">
+        <f>raw!B12</f>
         <v>57</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <f>raw!C12</f>
+        <v>15</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -2423,7 +2457,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>0.43076923076923079</v>
+        <v>0.44615384615384618</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="2"/>
@@ -2431,7 +2465,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="3"/>
-        <v>0.13076923076923078</v>
+        <v>0.11538461538461539</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2439,13 +2473,16 @@
         <v>1011</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <f>raw!A13</f>
+        <v>67</v>
       </c>
       <c r="C13">
+        <f>raw!B13</f>
         <v>56</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <f>raw!C13</f>
+        <v>14</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -2453,7 +2490,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>0.45985401459854014</v>
+        <v>0.48905109489051096</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="2"/>
@@ -2461,7 +2498,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="3"/>
-        <v>0.13138686131386862</v>
+        <v>0.10218978102189781</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2469,13 +2506,16 @@
         <v>1012</v>
       </c>
       <c r="B14">
-        <v>64</v>
+        <f>raw!A14</f>
+        <v>67</v>
       </c>
       <c r="C14">
+        <f>raw!B14</f>
         <v>95</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <f>raw!C14</f>
+        <v>10</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -2483,7 +2523,7 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>0.37209302325581395</v>
+        <v>0.38953488372093026</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="2"/>
@@ -2491,7 +2531,7 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" si="3"/>
-        <v>7.5581395348837205E-2</v>
+        <v>5.8139534883720929E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2499,13 +2539,16 @@
         <v>1013</v>
       </c>
       <c r="B15">
+        <f>raw!A15</f>
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <f>raw!B15</f>
         <v>60</v>
       </c>
-      <c r="C15">
-        <v>60</v>
-      </c>
       <c r="D15">
-        <v>17</v>
+        <f>raw!C15</f>
+        <v>11</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -2513,7 +2556,7 @@
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>0.43795620437956206</v>
+        <v>0.48175182481751827</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="2"/>
@@ -2521,7 +2564,7 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" si="3"/>
-        <v>0.12408759124087591</v>
+        <v>8.0291970802919707E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2529,13 +2572,16 @@
         <v>1014</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <f>raw!A16</f>
+        <v>56</v>
       </c>
       <c r="C16">
+        <f>raw!B16</f>
         <v>73</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <f>raw!C16</f>
+        <v>6</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -2543,7 +2589,7 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>0.37777777777777777</v>
+        <v>0.4148148148148148</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="2"/>
@@ -2551,7 +2597,7 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" si="3"/>
-        <v>8.1481481481481488E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2559,13 +2605,16 @@
         <v>1015</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <f>raw!A17</f>
+        <v>66</v>
       </c>
       <c r="C17">
+        <f>raw!B17</f>
         <v>78</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <f>raw!C17</f>
+        <v>6</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -2573,7 +2622,7 @@
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>0.41333333333333333</v>
+        <v>0.44</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="2"/>
@@ -2581,7 +2630,7 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2589,13 +2638,16 @@
         <v>1016</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <f>raw!A18</f>
+        <v>71</v>
       </c>
       <c r="C18">
+        <f>raw!B18</f>
         <v>97</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <f>raw!C18</f>
+        <v>5</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -2603,7 +2655,7 @@
       </c>
       <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>0.39306358381502893</v>
+        <v>0.41040462427745666</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="2"/>
@@ -2611,7 +2663,7 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" si="3"/>
-        <v>4.6242774566473986E-2</v>
+        <v>2.8901734104046242E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2619,13 +2671,16 @@
         <v>1017</v>
       </c>
       <c r="B19">
-        <v>69</v>
+        <f>raw!A19</f>
+        <v>73</v>
       </c>
       <c r="C19">
+        <f>raw!B19</f>
         <v>86</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <f>raw!C19</f>
+        <v>7</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
@@ -2633,7 +2688,7 @@
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>0.41566265060240964</v>
+        <v>0.43975903614457829</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="2"/>
@@ -2641,7 +2696,7 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" si="3"/>
-        <v>6.6265060240963861E-2</v>
+        <v>4.2168674698795178E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2649,13 +2704,16 @@
         <v>1018</v>
       </c>
       <c r="B20">
-        <v>39</v>
+        <f>raw!A20</f>
+        <v>42</v>
       </c>
       <c r="C20">
+        <f>raw!B20</f>
         <v>74</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <f>raw!C20</f>
+        <v>3</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
@@ -2663,7 +2721,7 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>0.32773109243697479</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="2"/>
@@ -2671,7 +2729,7 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" si="3"/>
-        <v>5.0420168067226892E-2</v>
+        <v>2.5210084033613446E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2679,13 +2737,16 @@
         <v>1019</v>
       </c>
       <c r="B21">
-        <v>55</v>
+        <f>raw!A21</f>
+        <v>57</v>
       </c>
       <c r="C21">
+        <f>raw!B21</f>
         <v>66</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <f>raw!C21</f>
+        <v>13</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
@@ -2693,7 +2754,7 @@
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>0.40441176470588236</v>
+        <v>0.41911764705882354</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="2"/>
@@ -2701,7 +2762,7 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" si="3"/>
-        <v>0.11029411764705882</v>
+        <v>9.5588235294117641E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2710,7 +2771,7 @@
       </c>
       <c r="B22">
         <f>AVERAGE(B2:B21)</f>
-        <v>54.45</v>
+        <v>58.05</v>
       </c>
       <c r="C22">
         <f t="shared" ref="C22:E22" si="4">AVERAGE(C2:C21)</f>
@@ -2718,7 +2779,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
-        <v>12.65</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="E22">
         <f t="shared" si="4"/>
@@ -2726,7 +2787,7 @@
       </c>
       <c r="G22" s="1">
         <f>AVERAGE(G2:G21)</f>
-        <v>0.39735051923412329</v>
+        <v>0.42405411253669634</v>
       </c>
       <c r="H22" s="1">
         <f>AVERAGE(H2:H21)</f>
@@ -2734,11 +2795,257 @@
       </c>
       <c r="I22" s="1">
         <f>AVERAGE(I2:I21)</f>
-        <v>9.3310683313704373E-2</v>
+        <v>6.6607090011131548E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2F3F05-6040-485E-941D-4098ABFA4C94}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>86</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>78</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>58</v>
+      </c>
+      <c r="B12">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>67</v>
+      </c>
+      <c r="B13">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>66</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <v>73</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>66</v>
+      </c>
+      <c r="B17">
+        <v>78</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>97</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>86</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>74</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>66</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/ugrad-009-01/ugrad-009-01-stats-20.xlsx
+++ b/results/ugrad-009-01/ugrad-009-01-stats-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desti\Documents\GitHub\P4P\results\ugrad-009-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ABDBE2-6D8A-4024-919A-43FEA681F6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2D74F8-9A64-41D2-870A-852F6931FEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ugrad-009-01-stats-20" sheetId="1" r:id="rId1"/>
@@ -722,7 +722,7 @@
                   <c:v>0.45945945945945948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45283018867924529</c:v>
+                  <c:v>0.44339622641509435</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.45222929936305734</c:v>
@@ -731,19 +731,19 @@
                   <c:v>0.36054421768707484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47058823529411764</c:v>
+                  <c:v>0.47794117647058826</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.3925925925925926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36486486486486486</c:v>
+                  <c:v>0.38513513513513514</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.37142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.44615384615384618</c:v>
@@ -752,7 +752,7 @@
                   <c:v>0.48905109489051096</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38953488372093026</c:v>
+                  <c:v>0.39534883720930231</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.48175182481751827</c:v>
@@ -776,7 +776,7 @@
                   <c:v>0.41911764705882354</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.42405411253669634</c:v>
+                  <c:v>0.42570070124167297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,7 +926,7 @@
                   <c:v>5.4054054054054057E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6603773584905662E-2</c:v>
+                  <c:v>6.6037735849056603E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.0955414012738856E-2</c:v>
@@ -935,19 +935,19 @@
                   <c:v>3.4013605442176874E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17647058823529413</c:v>
+                  <c:v>0.16911764705882354</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8.1481481481481488E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4054054054054057E-2</c:v>
+                  <c:v>3.3783783783783786E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0357142857142863E-2</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.11538461538461539</c:v>
@@ -956,7 +956,7 @@
                   <c:v>0.10218978102189781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8139534883720929E-2</c:v>
+                  <c:v>5.232558139534884E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>8.0291970802919707E-2</c:v>
@@ -980,7 +980,7 @@
                   <c:v>9.5588235294117641E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.6607090011131548E-2</c:v>
+                  <c:v>6.4960501306154855E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,7 +2076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B4">
         <f>raw!A4</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <f>raw!B4</f>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="D4">
         <f>raw!C4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>0.45283018867924529</v>
+        <v>0.44339622641509435</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>5.6603773584905662E-2</v>
+        <v>6.6037735849056603E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B7">
         <f>raw!A7</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <f>raw!B7</f>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="D7">
         <f>raw!C7</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>0.47058823529411764</v>
+        <v>0.47794117647058826</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>0.17647058823529413</v>
+        <v>0.16911764705882354</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="B9">
         <f>raw!A9</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <f>raw!B9</f>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="D9">
         <f>raw!C9</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>0.36486486486486486</v>
+        <v>0.38513513513513514</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="2"/>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="3"/>
-        <v>5.4054054054054057E-2</v>
+        <v>3.3783783783783786E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="B11">
         <f>raw!A11</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <f>raw!B11</f>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="D11">
         <f>raw!C11</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
+        <v>0.4375</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>8.0357142857142863E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B14">
         <f>raw!A14</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <f>raw!B14</f>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="D14">
         <f>raw!C14</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>0.38953488372093026</v>
+        <v>0.39534883720930231</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="2"/>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" si="3"/>
-        <v>5.8139534883720929E-2</v>
+        <v>5.232558139534884E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B22">
         <f>AVERAGE(B2:B21)</f>
-        <v>58.05</v>
+        <v>58.3</v>
       </c>
       <c r="C22">
         <f t="shared" ref="C22:E22" si="4">AVERAGE(C2:C21)</f>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
-        <v>9.0500000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E22">
         <f t="shared" si="4"/>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="G22" s="1">
         <f>AVERAGE(G2:G21)</f>
-        <v>0.42405411253669634</v>
+        <v>0.42570070124167297</v>
       </c>
       <c r="H22" s="1">
         <f>AVERAGE(H2:H21)</f>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="I22" s="1">
         <f>AVERAGE(I2:I21)</f>
-        <v>6.6607090011131548E-2</v>
+        <v>6.4960501306154855E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2808,7 +2808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2F3F05-6040-485E-941D-4098ABFA4C94}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>52</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2882,13 +2882,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>48</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2904,13 +2904,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>86</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2926,13 +2926,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>55</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2959,13 +2959,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>95</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
